--- a/2010_UT_CO2SC_DyesData.xlsx
+++ b/2010_UT_CO2SC_DyesData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Synced\Research\Archived\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC512D8-09AC-42D9-AB67-4BBB6379E344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="15480" windowHeight="10035" tabRatio="550" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Points" sheetId="5" r:id="rId1"/>
@@ -12,7 +18,20 @@
     <sheet name="Sheet5" sheetId="9" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -679,7 +698,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -722,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -734,9 +753,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,14 +763,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -792,7 +811,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -864,7 +883,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1037,11 +1056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E737"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1133,7 @@
         <v>100.86</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f>D7*$D$4</f>
         <v>1.0086E-5</v>
       </c>
     </row>
@@ -8923,10 +8942,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -9087,61 +9106,61 @@
         <v>628.88</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="1">
         <v>1071.4000000000001</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="1">
         <v>30.189499999999999</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="1">
         <v>0.96930000000000005</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="1">
         <v>246.26</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="1">
         <v>39</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="1">
         <v>759.37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <v>761.01</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="1">
         <v>35.01</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="1">
         <v>0.625</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="1">
         <v>149.19</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="1">
         <v>22</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="1">
         <v>383.2</v>
       </c>
     </row>
@@ -9174,32 +9193,32 @@
         <v>587.15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="1">
         <v>761.01</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="1">
         <v>35.01</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="1">
         <v>0.625</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="1">
         <v>149.19</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="1">
         <v>22</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="1">
         <v>421.7</v>
       </c>
     </row>
@@ -9319,32 +9338,32 @@
         <v>453.15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="1">
         <v>1189.7</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="1">
         <v>27.098500000000001</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="1">
         <v>1.0854999999999999</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="1">
         <v>263.29399999999998</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="1">
         <v>33</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="1">
         <v>693.4</v>
       </c>
     </row>
@@ -11877,11 +11896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:E737"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20776,11 +20795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
